--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.158268666666667</v>
+        <v>2.013740666666667</v>
       </c>
       <c r="H2">
-        <v>3.474806</v>
+        <v>6.041221999999999</v>
       </c>
       <c r="I2">
-        <v>0.3523202827966646</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="J2">
-        <v>0.3523202827966647</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.137034666666668</v>
+        <v>4.482602333333333</v>
       </c>
       <c r="N2">
-        <v>21.411104</v>
+        <v>13.447807</v>
       </c>
       <c r="O2">
-        <v>0.2893042061581677</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="P2">
-        <v>0.2893042061581678</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="Q2">
-        <v>8.266603627313778</v>
+        <v>9.026798611128221</v>
       </c>
       <c r="R2">
-        <v>74.39943264582401</v>
+        <v>81.241187500154</v>
       </c>
       <c r="S2">
-        <v>0.1019277397279102</v>
+        <v>0.091142149610933</v>
       </c>
       <c r="T2">
-        <v>0.1019277397279102</v>
+        <v>0.091142149610933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.158268666666667</v>
+        <v>2.013740666666667</v>
       </c>
       <c r="H3">
-        <v>3.474806</v>
+        <v>6.041221999999999</v>
       </c>
       <c r="I3">
-        <v>0.3523202827966646</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="J3">
-        <v>0.3523202827966647</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.359742</v>
       </c>
       <c r="O3">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="P3">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="Q3">
-        <v>3.999788184450222</v>
+        <v>6.953944587191556</v>
       </c>
       <c r="R3">
-        <v>35.998093660052</v>
+        <v>62.585501284724</v>
       </c>
       <c r="S3">
-        <v>0.04931763846573721</v>
+        <v>0.07021287227684532</v>
       </c>
       <c r="T3">
-        <v>0.04931763846573723</v>
+        <v>0.07021287227684532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.158268666666667</v>
+        <v>2.013740666666667</v>
       </c>
       <c r="H4">
-        <v>3.474806</v>
+        <v>6.041221999999999</v>
       </c>
       <c r="I4">
-        <v>0.3523202827966646</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="J4">
-        <v>0.3523202827966647</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.436956</v>
+        <v>1.516087333333333</v>
       </c>
       <c r="N4">
-        <v>4.310868</v>
+        <v>4.548262</v>
       </c>
       <c r="O4">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="P4">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="Q4">
-        <v>1.664381110178667</v>
+        <v>3.053006717351555</v>
       </c>
       <c r="R4">
-        <v>14.979429991608</v>
+        <v>27.477060456164</v>
       </c>
       <c r="S4">
-        <v>0.02052192318085872</v>
+        <v>0.03082572315870695</v>
       </c>
       <c r="T4">
-        <v>0.02052192318085872</v>
+        <v>0.03082572315870695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.158268666666667</v>
+        <v>2.013740666666667</v>
       </c>
       <c r="H5">
-        <v>3.474806</v>
+        <v>6.041221999999999</v>
       </c>
       <c r="I5">
-        <v>0.3523202827966646</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="J5">
-        <v>0.3523202827966647</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.642416</v>
+        <v>9.264553333333334</v>
       </c>
       <c r="N5">
-        <v>37.927248</v>
+        <v>27.79366</v>
       </c>
       <c r="O5">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665798</v>
       </c>
       <c r="P5">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665797</v>
       </c>
       <c r="Q5">
-        <v>14.64331432376533</v>
+        <v>18.65640780583556</v>
       </c>
       <c r="R5">
-        <v>131.789828913888</v>
+        <v>167.90767025252</v>
       </c>
       <c r="S5">
-        <v>0.1805529814221585</v>
+        <v>0.188370781790325</v>
       </c>
       <c r="T5">
-        <v>0.1805529814221585</v>
+        <v>0.1883707817903249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8431363333333333</v>
+        <v>0.8431363333333334</v>
       </c>
       <c r="H6">
         <v>2.529409</v>
       </c>
       <c r="I6">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="J6">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.137034666666668</v>
+        <v>4.482602333333333</v>
       </c>
       <c r="N6">
-        <v>21.411104</v>
+        <v>13.447807</v>
       </c>
       <c r="O6">
-        <v>0.2893042061581677</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="P6">
-        <v>0.2893042061581678</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="Q6">
-        <v>6.017493239726223</v>
+        <v>3.779444895118111</v>
       </c>
       <c r="R6">
-        <v>54.157439157536</v>
+        <v>34.01500405606301</v>
       </c>
       <c r="S6">
-        <v>0.07419606798694191</v>
+        <v>0.03816045387923841</v>
       </c>
       <c r="T6">
-        <v>0.07419606798694192</v>
+        <v>0.03816045387923842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8431363333333333</v>
+        <v>0.8431363333333334</v>
       </c>
       <c r="H7">
         <v>2.529409</v>
       </c>
       <c r="I7">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="J7">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.359742</v>
       </c>
       <c r="O7">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="P7">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="Q7">
         <v>2.911558294719778</v>
@@ -883,10 +883,10 @@
         <v>26.204024652478</v>
       </c>
       <c r="S7">
-        <v>0.03589969586618127</v>
+        <v>0.02939754093673482</v>
       </c>
       <c r="T7">
-        <v>0.03589969586618128</v>
+        <v>0.02939754093673483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8431363333333333</v>
+        <v>0.8431363333333334</v>
       </c>
       <c r="H8">
         <v>2.529409</v>
       </c>
       <c r="I8">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="J8">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.436956</v>
+        <v>1.516087333333333</v>
       </c>
       <c r="N8">
-        <v>4.310868</v>
+        <v>4.548262</v>
       </c>
       <c r="O8">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="P8">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="Q8">
-        <v>1.211549813001333</v>
+        <v>1.278268315239778</v>
       </c>
       <c r="R8">
-        <v>10.903948317012</v>
+        <v>11.504414837158</v>
       </c>
       <c r="S8">
-        <v>0.01493848496605931</v>
+        <v>0.0129064718345298</v>
       </c>
       <c r="T8">
-        <v>0.01493848496605931</v>
+        <v>0.0129064718345298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8431363333333333</v>
+        <v>0.8431363333333334</v>
       </c>
       <c r="H9">
         <v>2.529409</v>
       </c>
       <c r="I9">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="J9">
-        <v>0.2564638412010422</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.642416</v>
+        <v>9.264553333333334</v>
       </c>
       <c r="N9">
-        <v>37.927248</v>
+        <v>27.79366</v>
       </c>
       <c r="O9">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665798</v>
       </c>
       <c r="P9">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665797</v>
       </c>
       <c r="Q9">
-        <v>10.65928027071467</v>
+        <v>7.811281527437778</v>
       </c>
       <c r="R9">
-        <v>95.93352243643199</v>
+        <v>70.30153374694001</v>
       </c>
       <c r="S9">
-        <v>0.1314295923818597</v>
+        <v>0.07886926697901253</v>
       </c>
       <c r="T9">
-        <v>0.1314295923818597</v>
+        <v>0.07886926697901253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5370516666666667</v>
+        <v>1.000022</v>
       </c>
       <c r="H10">
-        <v>1.611155</v>
+        <v>3.000066</v>
       </c>
       <c r="I10">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="J10">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.137034666666668</v>
+        <v>4.482602333333333</v>
       </c>
       <c r="N10">
-        <v>21.411104</v>
+        <v>13.447807</v>
       </c>
       <c r="O10">
-        <v>0.2893042061581677</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="P10">
-        <v>0.2893042061581678</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="Q10">
-        <v>3.832956362791112</v>
+        <v>4.482700950584667</v>
       </c>
       <c r="R10">
-        <v>34.49660726512001</v>
+        <v>40.34430855526201</v>
       </c>
       <c r="S10">
-        <v>0.04726059167082168</v>
+        <v>0.04526111839867387</v>
       </c>
       <c r="T10">
-        <v>0.04726059167082169</v>
+        <v>0.04526111839867387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5370516666666667</v>
+        <v>1.000022</v>
       </c>
       <c r="H11">
-        <v>1.611155</v>
+        <v>3.000066</v>
       </c>
       <c r="I11">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="J11">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.359742</v>
       </c>
       <c r="O11">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="P11">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="Q11">
-        <v>1.854572235778889</v>
+        <v>3.453323304774667</v>
       </c>
       <c r="R11">
-        <v>16.69115012201</v>
+        <v>31.07990974297201</v>
       </c>
       <c r="S11">
-        <v>0.02286699165428656</v>
+        <v>0.03486765606033121</v>
       </c>
       <c r="T11">
-        <v>0.02286699165428656</v>
+        <v>0.03486765606033121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5370516666666667</v>
+        <v>1.000022</v>
       </c>
       <c r="H12">
-        <v>1.611155</v>
+        <v>3.000066</v>
       </c>
       <c r="I12">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="J12">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.436956</v>
+        <v>1.516087333333333</v>
       </c>
       <c r="N12">
-        <v>4.310868</v>
+        <v>4.548262</v>
       </c>
       <c r="O12">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="P12">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="Q12">
-        <v>0.7717196147266668</v>
+        <v>1.516120687254667</v>
       </c>
       <c r="R12">
-        <v>6.945476532540001</v>
+        <v>13.645086185292</v>
       </c>
       <c r="S12">
-        <v>0.009515351113833819</v>
+        <v>0.01530802939766976</v>
       </c>
       <c r="T12">
-        <v>0.009515351113833819</v>
+        <v>0.01530802939766976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5370516666666667</v>
+        <v>1.000022</v>
       </c>
       <c r="H13">
-        <v>1.611155</v>
+        <v>3.000066</v>
       </c>
       <c r="I13">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="J13">
-        <v>0.1633595041649117</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.642416</v>
+        <v>9.264553333333334</v>
       </c>
       <c r="N13">
-        <v>37.927248</v>
+        <v>27.79366</v>
       </c>
       <c r="O13">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665798</v>
       </c>
       <c r="P13">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665797</v>
       </c>
       <c r="Q13">
-        <v>6.789630583493333</v>
+        <v>9.264757153506668</v>
       </c>
       <c r="R13">
-        <v>61.10667525144</v>
+        <v>83.38281438156002</v>
       </c>
       <c r="S13">
-        <v>0.08371656972596968</v>
+        <v>0.09354477915934443</v>
       </c>
       <c r="T13">
-        <v>0.08371656972596968</v>
+        <v>0.09354477915934442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.749088</v>
+        <v>1.434738333333333</v>
       </c>
       <c r="H14">
-        <v>2.247264</v>
+        <v>4.304214999999999</v>
       </c>
       <c r="I14">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="J14">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.137034666666668</v>
+        <v>4.482602333333333</v>
       </c>
       <c r="N14">
-        <v>21.411104</v>
+        <v>13.447807</v>
       </c>
       <c r="O14">
-        <v>0.2893042061581677</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="P14">
-        <v>0.2893042061581678</v>
+        <v>0.2395001548634358</v>
       </c>
       <c r="Q14">
-        <v>5.346267024384001</v>
+        <v>6.431361400722777</v>
       </c>
       <c r="R14">
-        <v>48.116403219456</v>
+        <v>57.88225260650499</v>
       </c>
       <c r="S14">
-        <v>0.0659198067724939</v>
+        <v>0.06493643297459055</v>
       </c>
       <c r="T14">
-        <v>0.06591980677249391</v>
+        <v>0.06493643297459056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.749088</v>
+        <v>1.434738333333333</v>
       </c>
       <c r="H15">
-        <v>2.247264</v>
+        <v>4.304214999999999</v>
       </c>
       <c r="I15">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="J15">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.359742</v>
       </c>
       <c r="O15">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="P15">
-        <v>0.1399795608537247</v>
+        <v>0.1845029314701825</v>
       </c>
       <c r="Q15">
-        <v>2.586786138432</v>
+        <v>4.954506323614444</v>
       </c>
       <c r="R15">
-        <v>23.281075245888</v>
+        <v>44.59055691253</v>
       </c>
       <c r="S15">
-        <v>0.03189523486751965</v>
+        <v>0.05002486219627116</v>
       </c>
       <c r="T15">
-        <v>0.03189523486751965</v>
+        <v>0.05002486219627117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.749088</v>
+        <v>1.434738333333333</v>
       </c>
       <c r="H16">
-        <v>2.247264</v>
+        <v>4.304214999999999</v>
       </c>
       <c r="I16">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="J16">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.436956</v>
+        <v>1.516087333333333</v>
       </c>
       <c r="N16">
-        <v>4.310868</v>
+        <v>4.548262</v>
       </c>
       <c r="O16">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="P16">
-        <v>0.05824791867774068</v>
+        <v>0.08100275779980189</v>
       </c>
       <c r="Q16">
-        <v>1.076406496128</v>
+        <v>2.175188613814444</v>
       </c>
       <c r="R16">
-        <v>9.687658465151999</v>
+        <v>19.57669752433</v>
       </c>
       <c r="S16">
-        <v>0.01327215941698883</v>
+        <v>0.02196253340889538</v>
       </c>
       <c r="T16">
-        <v>0.01327215941698883</v>
+        <v>0.02196253340889539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.749088</v>
+        <v>1.434738333333333</v>
       </c>
       <c r="H17">
-        <v>2.247264</v>
+        <v>4.304214999999999</v>
       </c>
       <c r="I17">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="J17">
-        <v>0.2278563718373814</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.642416</v>
+        <v>9.264553333333334</v>
       </c>
       <c r="N17">
-        <v>37.927248</v>
+        <v>27.79366</v>
       </c>
       <c r="O17">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665798</v>
       </c>
       <c r="P17">
-        <v>0.5124683143103669</v>
+        <v>0.4949941558665797</v>
       </c>
       <c r="Q17">
-        <v>9.470282116607999</v>
+        <v>13.29220980854444</v>
       </c>
       <c r="R17">
-        <v>85.232539049472</v>
+        <v>119.6298882769</v>
       </c>
       <c r="S17">
-        <v>0.116769170780379</v>
+        <v>0.1342093279378979</v>
       </c>
       <c r="T17">
-        <v>0.116769170780379</v>
+        <v>0.1342093279378979</v>
       </c>
     </row>
   </sheetData>
